--- a/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2440</v>
+        <v>3134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001528265421926758</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007720981948735027</v>
+        <v>0.009915578708570159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2421</v>
+        <v>2737</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0007607812962191683</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003812558764300245</v>
+        <v>0.004311260338487344</v>
       </c>
     </row>
     <row r="5">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2566</v>
+        <v>2417</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001559515982415485</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008117323232881083</v>
+        <v>0.007645875020839829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3209</v>
+        <v>2822</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0007763380454428832</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005054386677283047</v>
+        <v>0.004445450418765777</v>
       </c>
     </row>
     <row r="6">
@@ -867,19 +867,19 @@
         <v>40439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30321</v>
+        <v>29904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52685</v>
+        <v>51828</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1268307642523864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09509587328656637</v>
+        <v>0.09378975754938031</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1652367812936416</v>
+        <v>0.1625490717358939</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -888,19 +888,19 @@
         <v>33446</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25857</v>
+        <v>26198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41341</v>
+        <v>41399</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1058214200960229</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08181120974651886</v>
+        <v>0.08288920114139614</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1307998643987653</v>
+        <v>0.1309852463903468</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -909,19 +909,19 @@
         <v>73885</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61597</v>
+        <v>61276</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87896</v>
+        <v>87514</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.116372164685407</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09701787690915924</v>
+        <v>0.09651242971594304</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1384397483140246</v>
+        <v>0.1378379074038105</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>278406</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>266160</v>
+        <v>267017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288524</v>
+        <v>288941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8731692357476136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8347632187063578</v>
+        <v>0.8374509282641059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9049041267134336</v>
+        <v>0.9062102424506195</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>470</v>
@@ -959,19 +959,19 @@
         <v>281639</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273564</v>
+        <v>272763</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>289164</v>
+        <v>288723</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8910907984996349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8655407803416483</v>
+        <v>0.8630071819537553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9148993351030936</v>
+        <v>0.9135056196806824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>751</v>
@@ -980,19 +980,19 @@
         <v>560045</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>546030</v>
+        <v>545781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>572173</v>
+        <v>572271</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8820907159729311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8600168691256981</v>
+        <v>0.8596247343587284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9011934124232462</v>
+        <v>0.9013471606493076</v>
       </c>
     </row>
     <row r="8">
@@ -1084,19 +1084,19 @@
         <v>68413</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49174</v>
+        <v>49510</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>92269</v>
+        <v>90675</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1289241599626384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09266820510653266</v>
+        <v>0.09330026917030826</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1738807024295425</v>
+        <v>0.1708760434356674</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -1105,19 +1105,19 @@
         <v>88453</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71174</v>
+        <v>73376</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104774</v>
+        <v>105923</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1620694870741684</v>
+        <v>0.1620694870741685</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1304088812656945</v>
+        <v>0.1344436602622253</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1919741806451608</v>
+        <v>0.1940788644940768</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>154</v>
@@ -1126,19 +1126,19 @@
         <v>156866</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>133701</v>
+        <v>132998</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>186304</v>
+        <v>185082</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1457296875773311</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1242091875296992</v>
+        <v>0.1235559175834034</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1730771967837431</v>
+        <v>0.1719423165180593</v>
       </c>
     </row>
     <row r="10">
@@ -1155,19 +1155,19 @@
         <v>5631</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1967</v>
+        <v>2104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13123</v>
+        <v>12896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01061103077140706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003706639843966412</v>
+        <v>0.003964559900819729</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02473111344193168</v>
+        <v>0.02430204398708454</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1176,19 +1176,19 @@
         <v>4891</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1899</v>
+        <v>2124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9662</v>
+        <v>10777</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.008961632918333462</v>
+        <v>0.008961632918333465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00347923224374702</v>
+        <v>0.003890892218907953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01770380852297638</v>
+        <v>0.01974707663757493</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1197,19 +1197,19 @@
         <v>10522</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5751</v>
+        <v>5596</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18223</v>
+        <v>18056</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009774743922459334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005342686682846942</v>
+        <v>0.00519879234290122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01692917712060178</v>
+        <v>0.01677408775800556</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>135370</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113305</v>
+        <v>114567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159647</v>
+        <v>166395</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2551041555425073</v>
+        <v>0.2551041555425074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2135218767660154</v>
+        <v>0.2159009093916481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3008542118285679</v>
+        <v>0.3135694133572941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -1247,19 +1247,19 @@
         <v>131616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114073</v>
+        <v>114096</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149803</v>
+        <v>149766</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2411548694437084</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2090119638430374</v>
+        <v>0.2090540392089046</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2744789671641193</v>
+        <v>0.2744107357816591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>297</v>
@@ -1268,19 +1268,19 @@
         <v>266986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>239278</v>
+        <v>239149</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>295808</v>
+        <v>299927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2480315111257</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2222905895124187</v>
+        <v>0.2221711526569132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2748078616952627</v>
+        <v>0.2786342889446266</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>321233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>294188</v>
+        <v>291552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>349579</v>
+        <v>347771</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6053606537234472</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5543952996071446</v>
+        <v>0.5494282435648423</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6587795123768376</v>
+        <v>0.6553718210110581</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>412</v>
@@ -1318,19 +1318,19 @@
         <v>320812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>300199</v>
+        <v>299384</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>341619</v>
+        <v>341561</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5878140105637896</v>
+        <v>0.5878140105637898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5500441344864333</v>
+        <v>0.5485519450036923</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6259378653044146</v>
+        <v>0.6258317935926666</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>635</v>
@@ -1339,19 +1339,19 @@
         <v>642045</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>607119</v>
+        <v>607151</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>674214</v>
+        <v>677004</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5964640573745094</v>
+        <v>0.5964640573745095</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5640173896360998</v>
+        <v>0.5640466779636494</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6263491757723899</v>
+        <v>0.6289413651881435</v>
       </c>
     </row>
     <row r="13">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6070</v>
+        <v>6015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00489359471799672</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01920820038194812</v>
+        <v>0.01903390269130029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5584</v>
+        <v>6774</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003003352102506677</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01568585686901172</v>
+        <v>0.01902822784451612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1485,19 +1485,19 @@
         <v>2615</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8201</v>
+        <v>7254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00389224342434421</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0008238910974547551</v>
+        <v>0.0008191566183203978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01220397784709954</v>
+        <v>0.01079525010849803</v>
       </c>
     </row>
     <row r="15">
@@ -1514,19 +1514,19 @@
         <v>2773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8974</v>
+        <v>8573</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008775014604561666</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002074729778948967</v>
+        <v>0.002082010105595201</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02840039988281882</v>
+        <v>0.02712898723974664</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -1535,19 +1535,19 @@
         <v>5203</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2259</v>
+        <v>2272</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11082</v>
+        <v>11346</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01461565928311228</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.00634492682852676</v>
+        <v>0.006381162508928266</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03113282634180686</v>
+        <v>0.03187340349996409</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -1556,19 +1556,19 @@
         <v>7976</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3856</v>
+        <v>4290</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>15342</v>
+        <v>15460</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01186908150195572</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.005738723770626075</v>
+        <v>0.006384391478762542</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02283226248373331</v>
+        <v>0.0230068275589439</v>
       </c>
     </row>
     <row r="16">
@@ -1585,19 +1585,19 @@
         <v>85004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70785</v>
+        <v>70990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99216</v>
+        <v>100362</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2690066455078179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.224009696981225</v>
+        <v>0.224656215081895</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3139829758288377</v>
+        <v>0.3176094599823183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -1606,19 +1606,19 @@
         <v>98011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85027</v>
+        <v>86172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110223</v>
+        <v>113126</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2753329349235796</v>
+        <v>0.2753329349235795</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2388594008883869</v>
+        <v>0.2420760306628639</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3096389616208832</v>
+        <v>0.3177938087302161</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>284</v>
@@ -1627,19 +1627,19 @@
         <v>183015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162284</v>
+        <v>164688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204652</v>
+        <v>203483</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2723579814890199</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2415070767174774</v>
+        <v>0.245084287361066</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3045576064233325</v>
+        <v>0.3028172868009513</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>226670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>211710</v>
+        <v>210564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>240943</v>
+        <v>241350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7173247451696235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6699838341651061</v>
+        <v>0.6663578211697464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7624952668420709</v>
+        <v>0.7637835118738859</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>356</v>
@@ -1677,19 +1677,19 @@
         <v>251689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>238787</v>
+        <v>236828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>264875</v>
+        <v>263448</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7070480536908015</v>
+        <v>0.7070480536908013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6708035199952034</v>
+        <v>0.665298903276533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7440898490736544</v>
+        <v>0.7400815005296092</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>598</v>
@@ -1698,19 +1698,19 @@
         <v>478359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>457193</v>
+        <v>457386</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>498973</v>
+        <v>497076</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.71188069358468</v>
+        <v>0.7118806935846802</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6803815907138738</v>
+        <v>0.6806693410179944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7425581290493669</v>
+        <v>0.7397348035011486</v>
       </c>
     </row>
     <row r="18">
@@ -1802,19 +1802,19 @@
         <v>2814</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8008</v>
+        <v>8031</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007540463284789497</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00190739536388738</v>
+        <v>0.001984717792967032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02146207337508835</v>
+        <v>0.02152283041641807</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1823,19 +1823,19 @@
         <v>7759</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2755</v>
+        <v>2669</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20110</v>
+        <v>20176</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0183870913673597</v>
+        <v>0.01838709136735971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006528416134102503</v>
+        <v>0.006325437332769731</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04765874601652532</v>
+        <v>0.04781435068044067</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1844,19 +1844,19 @@
         <v>10572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4672</v>
+        <v>5309</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22722</v>
+        <v>25611</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01329674584849201</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005876041320484558</v>
+        <v>0.006677344594681366</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02857722041294664</v>
+        <v>0.03221093603682441</v>
       </c>
     </row>
     <row r="20">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10494</v>
+        <v>11557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006766342093759957</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02812426712482786</v>
+        <v>0.03097089499359349</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4696</v>
+        <v>4889</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003139679403095591</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01112993230739046</v>
+        <v>0.011587373089939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1915,19 +1915,19 @@
         <v>3850</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1106</v>
+        <v>1133</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10974</v>
+        <v>12126</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.004841679880601916</v>
+        <v>0.004841679880601915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001390968632330659</v>
+        <v>0.001425279530221635</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0138019630551944</v>
+        <v>0.01525128684280252</v>
       </c>
     </row>
     <row r="21">
@@ -1944,19 +1944,19 @@
         <v>77667</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>61240</v>
+        <v>61894</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>98475</v>
+        <v>98051</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2081407324849827</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1641173190267764</v>
+        <v>0.1658708264315834</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2639041951177439</v>
+        <v>0.2627698444517703</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>134</v>
@@ -1965,19 +1965,19 @@
         <v>94918</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>80435</v>
+        <v>80290</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>113075</v>
+        <v>112893</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2249450509648561</v>
+        <v>0.224945050964856</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1906230569492301</v>
+        <v>0.1902788491432687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2679760512912534</v>
+        <v>0.2675434215330479</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>209</v>
@@ -1986,19 +1986,19 @@
         <v>172585</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>149040</v>
+        <v>148416</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>198725</v>
+        <v>195712</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2170587487315283</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1874463816988708</v>
+        <v>0.1866622841283541</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2499349841463223</v>
+        <v>0.2461454391756576</v>
       </c>
     </row>
     <row r="22">
@@ -2015,19 +2015,19 @@
         <v>290140</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>266680</v>
+        <v>269769</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>306495</v>
+        <v>305550</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7775524621364679</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7146820657553301</v>
+        <v>0.7229596585931732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8213837723233156</v>
+        <v>0.8188506274785653</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>457</v>
@@ -2036,19 +2036,19 @@
         <v>317960</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>299875</v>
+        <v>300029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>333618</v>
+        <v>333150</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7535281782646887</v>
+        <v>0.7535281782646888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7106702213716166</v>
+        <v>0.7110348018067342</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7906371180198319</v>
+        <v>0.7895268528759753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>669</v>
@@ -2057,19 +2057,19 @@
         <v>608100</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>582054</v>
+        <v>581615</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>633910</v>
+        <v>633490</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7648028255393777</v>
+        <v>0.7648028255393776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7320446437380437</v>
+        <v>0.7314932856700332</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7972643862753886</v>
+        <v>0.7967358322734547</v>
       </c>
     </row>
     <row r="23">
@@ -2161,19 +2161,19 @@
         <v>19265</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12355</v>
+        <v>11926</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29952</v>
+        <v>28904</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09367009800314455</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06007170596255883</v>
+        <v>0.05798672481707443</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1456342504959753</v>
+        <v>0.140540184401925</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2182,19 +2182,19 @@
         <v>19459</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12759</v>
+        <v>13011</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29491</v>
+        <v>29048</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08611160522071284</v>
+        <v>0.08611160522071283</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05645933041442745</v>
+        <v>0.05757597560900222</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1305031159563195</v>
+        <v>0.1285416078580848</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -2203,19 +2203,19 @@
         <v>38724</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28855</v>
+        <v>28584</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>52579</v>
+        <v>51947</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08971300310626097</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06684828899707873</v>
+        <v>0.06622267280156491</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1218118148037435</v>
+        <v>0.1203477506714734</v>
       </c>
     </row>
     <row r="25">
@@ -2232,19 +2232,19 @@
         <v>12553</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7454</v>
+        <v>7428</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19366</v>
+        <v>19215</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06103667284756129</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03624382278063704</v>
+        <v>0.03611458033293907</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09416131077986432</v>
+        <v>0.09342971463494353</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2253,19 +2253,19 @@
         <v>7373</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4083</v>
+        <v>4166</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12675</v>
+        <v>12270</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03262890371923251</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01806797609819496</v>
+        <v>0.018433614968499</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05609008305817235</v>
+        <v>0.05429868660098514</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -2274,19 +2274,19 @@
         <v>19926</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13950</v>
+        <v>14288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29254</v>
+        <v>28222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04616436411018483</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03231750271006375</v>
+        <v>0.0331005590340416</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06777322043686926</v>
+        <v>0.06538365621243836</v>
       </c>
     </row>
     <row r="26">
@@ -2303,19 +2303,19 @@
         <v>28530</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21054</v>
+        <v>20614</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36933</v>
+        <v>37067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1387201001396857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1023683888468493</v>
+        <v>0.1002288323168378</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1795773782726667</v>
+        <v>0.1802306322936122</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -2324,19 +2324,19 @@
         <v>41401</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33602</v>
+        <v>34387</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48842</v>
+        <v>49353</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1832087883390363</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1486952749074158</v>
+        <v>0.1521718568923368</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2161369577136407</v>
+        <v>0.2183994771547502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>148</v>
@@ -2345,19 +2345,19 @@
         <v>69931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>59749</v>
+        <v>59290</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83118</v>
+        <v>81252</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1620112464184623</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1384221889069943</v>
+        <v>0.1373602091208538</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1925617787348755</v>
+        <v>0.188239955098618</v>
       </c>
     </row>
     <row r="27">
@@ -2374,19 +2374,19 @@
         <v>145317</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>133030</v>
+        <v>133562</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>155901</v>
+        <v>157548</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7065731290096083</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6468289814233993</v>
+        <v>0.6494161559427259</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7580342599530622</v>
+        <v>0.7660430873243984</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>336</v>
@@ -2395,19 +2395,19 @@
         <v>157744</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>147174</v>
+        <v>147728</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>168158</v>
+        <v>167974</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6980507027210184</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.651274562551201</v>
+        <v>0.653728981835714</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7441350849966808</v>
+        <v>0.7433213669084553</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>533</v>
@@ -2416,19 +2416,19 @@
         <v>303061</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>286024</v>
+        <v>287407</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>317795</v>
+        <v>318451</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.7021113863650918</v>
+        <v>0.7021113863650917</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6626417793875459</v>
+        <v>0.665846675508882</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7362462924499152</v>
+        <v>0.7377659225877876</v>
       </c>
     </row>
     <row r="28">
@@ -2536,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3399</v>
+        <v>3837</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.00253656406718529</v>
+        <v>0.002536564067185288</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01288546302022133</v>
+        <v>0.01454698535994804</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3970</v>
+        <v>3418</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001251773620173423</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.007428951864109301</v>
+        <v>0.006396021016474888</v>
       </c>
     </row>
     <row r="30">
@@ -2599,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2960</v>
+        <v>2921</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.003142542647004125</v>
+        <v>0.003142542647004124</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01122272344825245</v>
+        <v>0.01107420525613127</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2850</v>
+        <v>2919</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001550819092913679</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.005331681040724442</v>
+        <v>0.005461819132000023</v>
       </c>
     </row>
     <row r="31">
@@ -2646,19 +2646,19 @@
         <v>79949</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67795</v>
+        <v>66989</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>92499</v>
+        <v>92571</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2953322891690754</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2504366296343843</v>
+        <v>0.247459239961965</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3416954045886816</v>
+        <v>0.3419607313534574</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>164</v>
@@ -2667,19 +2667,19 @@
         <v>78473</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>68010</v>
+        <v>68284</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>89654</v>
+        <v>90521</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2975297365737637</v>
+        <v>0.2975297365737636</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2578559996596643</v>
+        <v>0.2588973219178189</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3399215074467463</v>
+        <v>0.3432083544769238</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>307</v>
@@ -2688,19 +2688,19 @@
         <v>158422</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>142423</v>
+        <v>141978</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>175102</v>
+        <v>174652</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2964167114899985</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2664823660651546</v>
+        <v>0.2656491674364316</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3276253084739651</v>
+        <v>0.3267845544855427</v>
       </c>
     </row>
     <row r="32">
@@ -2717,19 +2717,19 @@
         <v>190758</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>178208</v>
+        <v>178136</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>202912</v>
+        <v>203718</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7046677108309246</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.658304595411318</v>
+        <v>0.6580392686465425</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7495633703656157</v>
+        <v>0.7525407600380348</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>293</v>
@@ -2738,19 +2738,19 @@
         <v>183779</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>172714</v>
+        <v>171696</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>194557</v>
+        <v>194146</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6967911567120471</v>
+        <v>0.6967911567120467</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6548390725649585</v>
+        <v>0.6509805937550454</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7376580184503225</v>
+        <v>0.7360969603828094</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>521</v>
@@ -2759,19 +2759,19 @@
         <v>374537</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>357966</v>
+        <v>357797</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>390293</v>
+        <v>390336</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7007806957969144</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6697756147843091</v>
+        <v>0.669458480025481</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7302601188128413</v>
+        <v>0.7303420045344406</v>
       </c>
     </row>
     <row r="33">
@@ -2863,19 +2863,19 @@
         <v>12414</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6323</v>
+        <v>6394</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22919</v>
+        <v>24010</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01724888660425876</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008786151838104059</v>
+        <v>0.008884233272774579</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03184510466192803</v>
+        <v>0.03336153424486715</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2884,19 +2884,19 @@
         <v>8948</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4216</v>
+        <v>4363</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16951</v>
+        <v>17056</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01160225264492152</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005466610494499043</v>
+        <v>0.005657462700942097</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02197993745327897</v>
+        <v>0.02211662507287899</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -2905,19 +2905,19 @@
         <v>21361</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13182</v>
+        <v>13328</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>32955</v>
+        <v>34003</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01432803248653068</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.008841769339068207</v>
+        <v>0.008939702253767706</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02210433140167652</v>
+        <v>0.02280727033358392</v>
       </c>
     </row>
     <row r="35">
@@ -2934,19 +2934,19 @@
         <v>8084</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3396</v>
+        <v>3784</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15374</v>
+        <v>15483</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01123281816031728</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004718130651081031</v>
+        <v>0.005257451757085882</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02136139367246798</v>
+        <v>0.02151386808841325</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -2955,19 +2955,19 @@
         <v>12951</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6903</v>
+        <v>7522</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22287</v>
+        <v>23556</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01679311286979541</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.008951507853220093</v>
+        <v>0.009753799440754553</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02889886212654373</v>
+        <v>0.03054493465485155</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>23</v>
@@ -2976,19 +2976,19 @@
         <v>21035</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13497</v>
+        <v>13353</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32051</v>
+        <v>32739</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01410901127198607</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.009053059096707278</v>
+        <v>0.008956415294416804</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02149821031158325</v>
+        <v>0.02195939762311409</v>
       </c>
     </row>
     <row r="36">
@@ -3005,19 +3005,19 @@
         <v>153644</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>129571</v>
+        <v>129294</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>176898</v>
+        <v>175907</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2134875867819068</v>
+        <v>0.2134875867819067</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1800384343232261</v>
+        <v>0.179653568858848</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2457985217184379</v>
+        <v>0.2444215243859643</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>317</v>
@@ -3026,19 +3026,19 @@
         <v>236860</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>213957</v>
+        <v>212898</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>259859</v>
+        <v>260397</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3071345740333279</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.277436603718088</v>
+        <v>0.2760631298150318</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3369572345464124</v>
+        <v>0.3376546186209402</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>464</v>
@@ -3047,19 +3047,19 @@
         <v>390504</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>357591</v>
+        <v>355047</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>425004</v>
+        <v>424646</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2619286917474298</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2398521361718802</v>
+        <v>0.2381456322124451</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2850692178637439</v>
+        <v>0.2848290531433191</v>
       </c>
     </row>
     <row r="37">
@@ -3076,19 +3076,19 @@
         <v>545545</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>521387</v>
+        <v>522851</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>573465</v>
+        <v>570040</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7580307084535172</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7244633452142707</v>
+        <v>0.7264979718357971</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7968258115064014</v>
+        <v>0.7920660611356507</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>617</v>
@@ -3097,19 +3097,19 @@
         <v>512435</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>489547</v>
+        <v>488527</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>536473</v>
+        <v>537148</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.664470060451955</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6347921875133872</v>
+        <v>0.6334697114088661</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6956408970434697</v>
+        <v>0.6965151367548837</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1050</v>
@@ -3118,19 +3118,19 @@
         <v>1057980</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1022032</v>
+        <v>1023670</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1092495</v>
+        <v>1095038</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7096342644940534</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6855223689371539</v>
+        <v>0.6866210942922572</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7327850696582747</v>
+        <v>0.7344910222012675</v>
       </c>
     </row>
     <row r="38">
@@ -3222,19 +3222,19 @@
         <v>180709</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>157852</v>
+        <v>156249</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>208819</v>
+        <v>205921</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2264321622690122</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1977911247349602</v>
+        <v>0.1957836559256883</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.261654378526984</v>
+        <v>0.2580233970774123</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>212</v>
@@ -3243,19 +3243,19 @@
         <v>168135</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>147375</v>
+        <v>145941</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>189503</v>
+        <v>189824</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2025732225932507</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1775611044523039</v>
+        <v>0.1758334948289016</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2283185502744287</v>
+        <v>0.2287047885732557</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>388</v>
@@ -3264,19 +3264,19 @@
         <v>348844</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>314470</v>
+        <v>315063</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>382880</v>
+        <v>380899</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.214268770745677</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1931550529911982</v>
+        <v>0.1935196745452693</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2351745278073149</v>
+        <v>0.2339578492025607</v>
       </c>
     </row>
     <row r="40">
@@ -3293,19 +3293,19 @@
         <v>66835</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>52747</v>
+        <v>52915</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>85861</v>
+        <v>85633</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0837455247687378</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06609243927737714</v>
+        <v>0.06630412287825109</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1075855643899098</v>
+        <v>0.107299982957982</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>115</v>
@@ -3314,19 +3314,19 @@
         <v>86998</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>72874</v>
+        <v>73871</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>103709</v>
+        <v>103710</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1048174981839778</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08780101945738891</v>
+        <v>0.08900209636917729</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1249509710264888</v>
+        <v>0.124952289068256</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>180</v>
@@ -3335,19 +3335,19 @@
         <v>153833</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>133317</v>
+        <v>131555</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>179199</v>
+        <v>176891</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.09448810873525243</v>
+        <v>0.09448810873525247</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08188656250159493</v>
+        <v>0.08080443487477691</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1100687916225378</v>
+        <v>0.1086510830444197</v>
       </c>
     </row>
     <row r="41">
@@ -3364,19 +3364,19 @@
         <v>230406</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>205000</v>
+        <v>206480</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>256221</v>
+        <v>259094</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2887029337704217</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2568688613317213</v>
+        <v>0.2587233302493172</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3210504290917042</v>
+        <v>0.3246503667815634</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>392</v>
@@ -3385,19 +3385,19 @@
         <v>283349</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>261134</v>
+        <v>257630</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>309410</v>
+        <v>306408</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.3413854108995695</v>
+        <v>0.3413854108995696</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3146207481386011</v>
+        <v>0.3103991241514349</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3727854321063964</v>
+        <v>0.3691681894022076</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>639</v>
@@ -3406,19 +3406,19 @@
         <v>513754</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>478252</v>
+        <v>479262</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>550126</v>
+        <v>546617</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.31556069042052</v>
+        <v>0.3155606904205201</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2937545993193794</v>
+        <v>0.2943747955310042</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3379011354674181</v>
+        <v>0.3357459062895484</v>
       </c>
     </row>
     <row r="42">
@@ -3435,19 +3435,19 @@
         <v>320122</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>288797</v>
+        <v>289847</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>349259</v>
+        <v>351117</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4011193791918282</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3618689282451973</v>
+        <v>0.3631835669390511</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4376289884388945</v>
+        <v>0.4399564530948845</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>341</v>
@@ -3456,19 +3456,19 @@
         <v>291514</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>265943</v>
+        <v>267468</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>316948</v>
+        <v>318654</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3512238683232019</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.320414824334406</v>
+        <v>0.3222523278353966</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3818670613164733</v>
+        <v>0.38392273300791</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>615</v>
@@ -3477,19 +3477,19 @@
         <v>611637</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>571875</v>
+        <v>577270</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>652017</v>
+        <v>657109</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.3756824300985505</v>
+        <v>0.3756824300985506</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3512596844970491</v>
+        <v>0.3545735209838022</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4004853549554372</v>
+        <v>0.4036126228783122</v>
       </c>
     </row>
     <row r="43">
@@ -3581,19 +3581,19 @@
         <v>285161</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>246936</v>
+        <v>250475</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>320363</v>
+        <v>323397</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08071894945415101</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06989871692974918</v>
+        <v>0.07090074810509962</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09068343119434799</v>
+        <v>0.09154239140937759</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>373</v>
@@ -3602,19 +3602,19 @@
         <v>294975</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>265694</v>
+        <v>264351</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>329148</v>
+        <v>326667</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07906719728537244</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07121867269180368</v>
+        <v>0.07085854056015388</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.08822722806564472</v>
+        <v>0.08756231283680402</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>631</v>
@@ -3623,19 +3623,19 @@
         <v>580135</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>532400</v>
+        <v>529642</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>632121</v>
+        <v>630328</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.07987056916194914</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.07329858234512182</v>
+        <v>0.07291877510526135</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08702769149544425</v>
+        <v>0.08678081593789939</v>
       </c>
     </row>
     <row r="45">
@@ -3652,19 +3652,19 @@
         <v>98401</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>81126</v>
+        <v>79264</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>121812</v>
+        <v>119736</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.02785371463363655</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.022963991835714</v>
+        <v>0.02243674669061251</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03448076357481694</v>
+        <v>0.03389301854061931</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>164</v>
@@ -3673,19 +3673,19 @@
         <v>120063</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>101398</v>
+        <v>103197</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>140047</v>
+        <v>140092</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03218247259935607</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02717953796089948</v>
+        <v>0.02766169534443053</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03753923881723468</v>
+        <v>0.0375512086139887</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>265</v>
@@ -3694,19 +3694,19 @@
         <v>218463</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>191891</v>
+        <v>193125</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>246289</v>
+        <v>247055</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03007707054455624</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02641874919268316</v>
+        <v>0.02658859915171955</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03390798723617715</v>
+        <v>0.03401346090040355</v>
       </c>
     </row>
     <row r="46">
@@ -3723,19 +3723,19 @@
         <v>831009</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>776798</v>
+        <v>779650</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>881590</v>
+        <v>883099</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2352292828013118</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2198841835059729</v>
+        <v>0.2206913617279007</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.24954705738265</v>
+        <v>0.2499742219065162</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1537</v>
@@ -3744,19 +3744,19 @@
         <v>998074</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>948397</v>
+        <v>952348</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1043027</v>
+        <v>1045928</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2675310939620902</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2542152859736723</v>
+        <v>0.2552744445814856</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2795805849879974</v>
+        <v>0.2803582729269598</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2464</v>
@@ -3765,19 +3765,19 @@
         <v>1829083</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1758385</v>
+        <v>1763522</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1898449</v>
+        <v>1901679</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2518202826554213</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2420869555718708</v>
+        <v>0.2427941218921436</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2613703895275438</v>
+        <v>0.2618149754915883</v>
       </c>
     </row>
     <row r="47">
@@ -3794,19 +3794,19 @@
         <v>2318192</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2258465</v>
+        <v>2255003</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2378866</v>
+        <v>2381575</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.6561980531109008</v>
+        <v>0.6561980531109007</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6392916697871216</v>
+        <v>0.6383117163719453</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6733728373160744</v>
+        <v>0.6741396915483043</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3282</v>
@@ -3815,19 +3815,19 @@
         <v>2317572</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2260312</v>
+        <v>2264494</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2371806</v>
+        <v>2368813</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.6212192361531814</v>
+        <v>0.6212192361531813</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.6058707148010496</v>
+        <v>0.6069919319848226</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.6357566221422354</v>
+        <v>0.6349541661659661</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5372</v>
@@ -3836,19 +3836,19 @@
         <v>4635764</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4556577</v>
+        <v>4557890</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4712946</v>
+        <v>4713850</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.6382320776380734</v>
+        <v>0.6382320776380732</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.6273299571471361</v>
+        <v>0.6275108089284961</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6488582861674296</v>
+        <v>0.6489827016956685</v>
       </c>
     </row>
     <row r="48">
